--- a/Mifos Automation Excels/Client/Scenario6-Chaithanyaprod-TR2-EARLY-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/Scenario6-Chaithanyaprod-TR2-EARLY-Newcreateloan2.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>2856</v>
+        <v>224</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>29</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>2854</v>
+        <v>222</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>2851</v>
+        <v>221</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>29</v>
